--- a/Documents/Week7/07_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
+++ b/Documents/Week7/07_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\Documents\Week6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85572480-AEC1-4E26-9880-2FB0B7F46C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B97397-6C3F-40BD-AB3A-C020BD3B5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Project Name</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Not started</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Requested by</t>
@@ -909,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1023,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>51</v>
@@ -1061,7 +1058,7 @@
         <v>52</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>1001</v>
@@ -1093,7 +1090,7 @@
         <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J7" s="3">
         <v>1002</v>
@@ -1125,7 +1122,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="19">
         <v>1003</v>
@@ -1157,7 +1154,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J9" s="3">
         <v>1004</v>
@@ -1189,7 +1186,7 @@
         <v>52</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3">
         <v>1005</v>
@@ -1218,7 +1215,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>40</v>
@@ -1250,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="3">
         <v>1007</v>
@@ -1282,10 +1279,10 @@
         <v>23</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J13" s="3">
         <v>1008</v>
